--- a/data/scheduling_DNN/predict/0.1/result23.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result23.xlsx
@@ -570,10 +570,10 @@
         <v>0.8884549140930176</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.484505295753479</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1716306060552597</v>
+        <v>0.1631752997636795</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9551630020141602</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.4833406209945679</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1084475517272949</v>
+        <v>0.2226163595914841</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9185559749603271</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.9027999043464661</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1911192685365677</v>
+        <v>0.0002482537529431283</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8967239856719971</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.548417329788208</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2120407372713089</v>
+        <v>0.1213175281882286</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8834071159362793</v>
       </c>
       <c r="V6" t="n">
-        <v>0.473930835723877</v>
+        <v>0.4939600229263306</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1676708310842514</v>
+        <v>0.1516690403223038</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8597118854522705</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.4966263175010681</v>
       </c>
       <c r="W7" t="n">
-        <v>0.05483473092317581</v>
+        <v>0.1318311244249344</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>1.07122802734375</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.5828648805618286</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3765071034431458</v>
+        <v>0.2384985685348511</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8737270832061768</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.533426821231842</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1726711243391037</v>
+        <v>0.1158042699098587</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8790328502655029</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.581350564956665</v>
       </c>
       <c r="W10" t="n">
-        <v>0.05537840723991394</v>
+        <v>0.08861473947763443</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.901339054107666</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6190664768218994</v>
+        <v>1.041048288345337</v>
       </c>
       <c r="W11" t="n">
-        <v>0.07967780530452728</v>
+        <v>0.01951866969466209</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8686208724975586</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.9145112633705139</v>
       </c>
       <c r="W12" t="n">
-        <v>0.187376081943512</v>
+        <v>0.002105928026139736</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8623161315917969</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.4944261908531189</v>
       </c>
       <c r="W13" t="n">
-        <v>0.05674466863274574</v>
+        <v>0.1353430151939392</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8651430606842041</v>
       </c>
       <c r="V14" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.4728336334228516</v>
       </c>
       <c r="W14" t="n">
-        <v>0.05622963979840279</v>
+        <v>0.1539066880941391</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9484431743621826</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.8761724829673767</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2258593440055847</v>
+        <v>0.00522305304184556</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.878809928894043</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.9952250123023987</v>
       </c>
       <c r="W16" t="n">
-        <v>0.04851295426487923</v>
+        <v>0.0135524719953537</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8664481639862061</v>
       </c>
       <c r="V17" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.5870838165283203</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1855061650276184</v>
+        <v>0.07804443687200546</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8916950225830078</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.4859688878059387</v>
       </c>
       <c r="W18" t="n">
-        <v>0.06637585163116455</v>
+        <v>0.1646136939525604</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.9151768684387207</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.5487587451934814</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1250728517770767</v>
+        <v>0.1342622339725494</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8746120929718018</v>
       </c>
       <c r="V20" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.5309688448905945</v>
       </c>
       <c r="W20" t="n">
-        <v>0.003425799543038011</v>
+        <v>0.1180906817317009</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8753421306610107</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.5324905514717102</v>
       </c>
       <c r="W21" t="n">
-        <v>0.09462804347276688</v>
+        <v>0.1175472065806389</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5185060501098633</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.4823941588401794</v>
       </c>
       <c r="W22" t="n">
-        <v>0.003690186887979507</v>
+        <v>0.001304068719036877</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5583419799804688</v>
       </c>
       <c r="V23" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.9373394846916199</v>
       </c>
       <c r="W23" t="n">
-        <v>0.03220877423882484</v>
+        <v>0.1436391025781631</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5948619842529297</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.9451661705970764</v>
       </c>
       <c r="W24" t="n">
-        <v>0.008806013502180576</v>
+        <v>0.1227130219340324</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5509181022644043</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.4850943684577942</v>
       </c>
       <c r="W25" t="n">
-        <v>0.007489860057830811</v>
+        <v>0.004332764074206352</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5279209613800049</v>
       </c>
       <c r="V26" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.9949630498886108</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0006124678184278309</v>
+        <v>0.2181283086538315</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5133368968963623</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.9912258982658386</v>
       </c>
       <c r="W27" t="n">
-        <v>0.003096165833994746</v>
+        <v>0.2283778935670853</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.569044828414917</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.4945017695426941</v>
       </c>
       <c r="W28" t="n">
-        <v>0.01222625467926264</v>
+        <v>0.005556667689234018</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5756800174713135</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.5290225744247437</v>
       </c>
       <c r="W29" t="n">
-        <v>0.01378528401255608</v>
+        <v>0.002176916925236583</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5372881889343262</v>
       </c>
       <c r="V30" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.4953356385231018</v>
       </c>
       <c r="W30" t="n">
-        <v>0.03779008984565735</v>
+        <v>0.001760016428306699</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5134849548339844</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.4961321353912354</v>
       </c>
       <c r="W31" t="n">
-        <v>0.002755268476903439</v>
+        <v>0.0003011203370988369</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5252640247344971</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.5308970808982849</v>
       </c>
       <c r="W32" t="n">
-        <v>0.007964359596371651</v>
+        <v>3.173132063238882e-05</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5109241008758545</v>
       </c>
       <c r="V33" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.5085423588752747</v>
       </c>
       <c r="W33" t="n">
-        <v>0.001207319088280201</v>
+        <v>5.672694896929897e-06</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5865850448608398</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.9225664734840393</v>
       </c>
       <c r="W34" t="n">
-        <v>0.02263612300157547</v>
+        <v>0.112883523106575</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5184500217437744</v>
       </c>
       <c r="V35" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.9379213452339172</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01113681215792894</v>
+        <v>0.1759561896324158</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5295090675354004</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.4846788644790649</v>
       </c>
       <c r="W36" t="n">
-        <v>0.0006745854625478387</v>
+        <v>0.002009747084230185</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5112769603729248</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.9205935597419739</v>
       </c>
       <c r="W37" t="n">
-        <v>0.005662912502884865</v>
+        <v>0.1675400733947754</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5116491317749023</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.9272909760475159</v>
       </c>
       <c r="W38" t="n">
-        <v>0.005719190463423729</v>
+        <v>0.1727581471204758</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5144960880279541</v>
       </c>
       <c r="V39" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.881696343421936</v>
       </c>
       <c r="W39" t="n">
-        <v>0.01241176761686802</v>
+        <v>0.1348360329866409</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5129060745239258</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.5344371795654297</v>
       </c>
       <c r="W40" t="n">
-        <v>8.493594941683114e-05</v>
+        <v>0.0004635884833987802</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5161380767822266</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.5296985507011414</v>
       </c>
       <c r="W41" t="n">
-        <v>0.003637224901467562</v>
+        <v>0.0001838864554883912</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3956840038299561</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.9275498390197754</v>
       </c>
       <c r="W42" t="n">
-        <v>0.003436046419665217</v>
+        <v>0.2828812599182129</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4274368286132812</v>
       </c>
       <c r="V43" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.483351469039917</v>
       </c>
       <c r="W43" t="n">
-        <v>0.01903915032744408</v>
+        <v>0.003126447089016438</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3870470523834229</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.4856466054916382</v>
       </c>
       <c r="W44" t="n">
-        <v>0.00236552907153964</v>
+        <v>0.009721871465444565</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3867180347442627</v>
       </c>
       <c r="V45" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.5295354127883911</v>
       </c>
       <c r="W45" t="n">
-        <v>0.05656823143362999</v>
+        <v>0.02039680257439613</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3896000385284424</v>
       </c>
       <c r="V46" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.4857800602912903</v>
       </c>
       <c r="W46" t="n">
-        <v>0.07228998839855194</v>
+        <v>0.009250596165657043</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3911778926849365</v>
       </c>
       <c r="V47" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.4985612630844116</v>
       </c>
       <c r="W47" t="n">
-        <v>0.005572678986936808</v>
+        <v>0.01153118815273046</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3942551612854004</v>
       </c>
       <c r="V48" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.9021324515342712</v>
       </c>
       <c r="W48" t="n">
-        <v>0.1839364022016525</v>
+        <v>0.257939338684082</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3842079639434814</v>
       </c>
       <c r="V49" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.481576144695282</v>
       </c>
       <c r="W49" t="n">
-        <v>0.004814243875443935</v>
+        <v>0.00948056299239397</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.387706995010376</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.5296244621276855</v>
       </c>
       <c r="W50" t="n">
-        <v>0.002334703924134374</v>
+        <v>0.02014056779444218</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3863511085510254</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.9520735740661621</v>
       </c>
       <c r="W51" t="n">
-        <v>0.03603952750563622</v>
+        <v>0.3200418949127197</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.4315900802612305</v>
       </c>
       <c r="V52" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.5333448052406311</v>
       </c>
       <c r="W52" t="n">
-        <v>0.03703821450471878</v>
+        <v>0.01035402435809374</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3852369785308838</v>
       </c>
       <c r="V53" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.529620349407196</v>
       </c>
       <c r="W53" t="n">
-        <v>0.08992388099431992</v>
+        <v>0.02084655687212944</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3936328887939453</v>
       </c>
       <c r="V54" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.8985981345176697</v>
       </c>
       <c r="W54" t="n">
-        <v>0.01156918797641993</v>
+        <v>0.254989892244339</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3849899768829346</v>
       </c>
       <c r="V55" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.8871832489967346</v>
       </c>
       <c r="W55" t="n">
-        <v>0.07401341944932938</v>
+        <v>0.2521980702877045</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3853709697723389</v>
       </c>
       <c r="V56" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.9303879141807556</v>
       </c>
       <c r="W56" t="n">
-        <v>0.073835089802742</v>
+        <v>0.2970434725284576</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3843591213226318</v>
       </c>
       <c r="V57" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.5325619578361511</v>
       </c>
       <c r="W57" t="n">
-        <v>0.1830171793699265</v>
+        <v>0.02196408063173294</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.4378149509429932</v>
       </c>
       <c r="V58" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.5326326489448547</v>
       </c>
       <c r="W58" t="n">
-        <v>0.04234640300273895</v>
+        <v>0.008990395814180374</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3972539901733398</v>
       </c>
       <c r="V59" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.548406720161438</v>
       </c>
       <c r="W59" t="n">
-        <v>0.05158394575119019</v>
+        <v>0.02284714765846729</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3907439708709717</v>
       </c>
       <c r="V60" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.503652036190033</v>
       </c>
       <c r="W60" t="n">
-        <v>0.00204913504421711</v>
+        <v>0.01274823118001223</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.38419508934021</v>
       </c>
       <c r="V61" t="n">
-        <v>0.812067985534668</v>
+        <v>0.5834512710571289</v>
       </c>
       <c r="W61" t="n">
-        <v>0.1830752193927765</v>
+        <v>0.03970302641391754</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8681600093841553</v>
       </c>
       <c r="V62" t="n">
-        <v>0.618610143661499</v>
+        <v>0.9365677833557129</v>
       </c>
       <c r="W62" t="n">
-        <v>0.06227513402700424</v>
+        <v>0.004679623525589705</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8967771530151367</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.4951876401901245</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1958146095275879</v>
+        <v>0.1612741351127625</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8646180629730225</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.4927867650985718</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1840373575687408</v>
+        <v>0.1382585167884827</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8666529655456543</v>
       </c>
       <c r="V65" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.8775851130485535</v>
       </c>
       <c r="W65" t="n">
-        <v>0.09565524756908417</v>
+        <v>0.0001195118456962518</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8697168827056885</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.9533900618553162</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1880337744951248</v>
+        <v>0.007001200690865517</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.9256141185760498</v>
       </c>
       <c r="V67" t="n">
-        <v>0.436014860868454</v>
+        <v>0.9072751998901367</v>
       </c>
       <c r="W67" t="n">
-        <v>0.2397074401378632</v>
+        <v>0.0003363159485161304</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8976099491119385</v>
       </c>
       <c r="V68" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.5056915879249573</v>
       </c>
       <c r="W68" t="n">
-        <v>0.007343290373682976</v>
+        <v>0.1536000072956085</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8707211017608643</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.5083464384078979</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1310494244098663</v>
+        <v>0.1313153952360153</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8629240989685059</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.495262622833252</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1771492958068848</v>
+        <v>0.135174959897995</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.9299569129943848</v>
       </c>
       <c r="V71" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.5487048029899597</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1308146864175797</v>
+        <v>0.1453531682491302</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8682088851928711</v>
       </c>
       <c r="V72" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.5296205282211304</v>
       </c>
       <c r="W72" t="n">
-        <v>0.0999198853969574</v>
+        <v>0.1146420761942863</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8610258102416992</v>
       </c>
       <c r="V73" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.4945365190505981</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1313174664974213</v>
+        <v>0.1343144029378891</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8548650741577148</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.4868780970573425</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1357270628213882</v>
+        <v>0.1354144215583801</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.9164128303527832</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.9915242791175842</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1941852867603302</v>
+        <v>0.005641729570925236</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8647189140319824</v>
       </c>
       <c r="V76" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.4852393865585327</v>
       </c>
       <c r="W76" t="n">
-        <v>0.002326195361092687</v>
+        <v>0.1440047174692154</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8672587871551514</v>
       </c>
       <c r="V77" t="n">
-        <v>0.624763011932373</v>
+        <v>0.4925096035003662</v>
       </c>
       <c r="W77" t="n">
-        <v>0.05880420282483101</v>
+        <v>0.1404369473457336</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8561270236968994</v>
       </c>
       <c r="V78" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.5832039713859558</v>
       </c>
       <c r="W78" t="n">
-        <v>0.01497214287519455</v>
+        <v>0.07448699325323105</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.9201931953430176</v>
       </c>
       <c r="V79" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.8983566164970398</v>
       </c>
       <c r="W79" t="n">
-        <v>0.07733603566884995</v>
+        <v>0.0004768361686728895</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.855402946472168</v>
       </c>
       <c r="V80" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.4773067235946655</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1439770013093948</v>
+        <v>0.1429567486047745</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.9143579006195068</v>
       </c>
       <c r="V81" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.4722690582275391</v>
       </c>
       <c r="W81" t="n">
-        <v>0.05270655825734138</v>
+        <v>0.1954425424337387</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5773749351501465</v>
       </c>
       <c r="V82" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.5059397220611572</v>
       </c>
       <c r="W82" t="n">
-        <v>0.01123352441936731</v>
+        <v>0.005102989729493856</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.554434061050415</v>
       </c>
       <c r="V83" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.8789587020874023</v>
       </c>
       <c r="W83" t="n">
-        <v>0.002776490524411201</v>
+        <v>0.1053162440657616</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5399489402770996</v>
       </c>
       <c r="V84" t="n">
-        <v>0.816550612449646</v>
+        <v>0.4704746007919312</v>
       </c>
       <c r="W84" t="n">
-        <v>0.07650848478078842</v>
+        <v>0.004826684016734362</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5441670417785645</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.8962989449501038</v>
       </c>
       <c r="W85" t="n">
-        <v>0.007328597828745842</v>
+        <v>0.123996876180172</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.512894868850708</v>
       </c>
       <c r="V86" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.5051847100257874</v>
       </c>
       <c r="W86" t="n">
-        <v>0.02567099221050739</v>
+        <v>5.944654913037084e-05</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5125360488891602</v>
       </c>
       <c r="V87" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.8879077434539795</v>
       </c>
       <c r="W87" t="n">
-        <v>0.05472982302308083</v>
+        <v>0.1409039050340652</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5131340026855469</v>
       </c>
       <c r="V88" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.5830184817314148</v>
       </c>
       <c r="W88" t="n">
-        <v>0.01076218113303185</v>
+        <v>0.004883840214461088</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5161001682281494</v>
       </c>
       <c r="V89" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.541384756565094</v>
       </c>
       <c r="W89" t="n">
-        <v>0.01892470754683018</v>
+        <v>0.0006393103976733983</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5167219638824463</v>
       </c>
       <c r="V90" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.4859371781349182</v>
       </c>
       <c r="W90" t="n">
-        <v>0.01929110288619995</v>
+        <v>0.000947703025303781</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5330600738525391</v>
       </c>
       <c r="V91" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.9060015678405762</v>
       </c>
       <c r="W91" t="n">
-        <v>0.02336960099637508</v>
+        <v>0.1390853524208069</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5145108699798584</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.503229022026062</v>
       </c>
       <c r="W92" t="n">
-        <v>0.003759185783565044</v>
+        <v>0.0001272800873266533</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5159890651702881</v>
       </c>
       <c r="V93" t="n">
-        <v>0.505409836769104</v>
+        <v>0.9272754788398743</v>
       </c>
       <c r="W93" t="n">
-        <v>0.0001119200751418248</v>
+        <v>0.1691565066576004</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5644011497497559</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.5343579053878784</v>
       </c>
       <c r="W94" t="n">
-        <v>0.0001390232500853017</v>
+        <v>0.0009025965118780732</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5175778865814209</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.4853392839431763</v>
       </c>
       <c r="W95" t="n">
-        <v>0.003515766002237797</v>
+        <v>0.001039327471517026</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5130429267883301</v>
       </c>
       <c r="V96" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.9086635112762451</v>
       </c>
       <c r="W96" t="n">
-        <v>0.005931349005550146</v>
+        <v>0.1565156430006027</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5202670097351074</v>
       </c>
       <c r="V97" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.4844428300857544</v>
       </c>
       <c r="W97" t="n">
-        <v>0.007164978422224522</v>
+        <v>0.001283371821045876</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.511603832244873</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.913176953792572</v>
       </c>
       <c r="W98" t="n">
-        <v>0.001760491635650396</v>
+        <v>0.1612609773874283</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5167169570922852</v>
       </c>
       <c r="V99" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.4785188436508179</v>
       </c>
       <c r="W99" t="n">
-        <v>0.01184468995779753</v>
+        <v>0.001459095859900117</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5166358947753906</v>
       </c>
       <c r="V100" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.4935004711151123</v>
       </c>
       <c r="W100" t="n">
-        <v>0.001434944337233901</v>
+        <v>0.0005352478474378586</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5138838291168213</v>
       </c>
       <c r="V101" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.9295357465744019</v>
       </c>
       <c r="W101" t="n">
-        <v>0.003011372173205018</v>
+        <v>0.1727665215730667</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.3930490016937256</v>
       </c>
       <c r="V102" t="n">
-        <v>0.475897878408432</v>
+        <v>0.4904635548591614</v>
       </c>
       <c r="W102" t="n">
-        <v>0.006863936316221952</v>
+        <v>0.009489594958722591</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3973929882049561</v>
       </c>
       <c r="V103" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.920146644115448</v>
       </c>
       <c r="W103" t="n">
-        <v>0.0003440530563239008</v>
+        <v>0.273271381855011</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3878428936004639</v>
       </c>
       <c r="V104" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.5328319072723389</v>
       </c>
       <c r="W104" t="n">
-        <v>0.004989319015294313</v>
+        <v>0.02102181315422058</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4049160480499268</v>
       </c>
       <c r="V105" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.9277676939964294</v>
       </c>
       <c r="W105" t="n">
-        <v>0.06336665153503418</v>
+        <v>0.2733738422393799</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3859269618988037</v>
       </c>
       <c r="V106" t="n">
-        <v>0.56818687915802</v>
+        <v>0.5314562320709229</v>
       </c>
       <c r="W106" t="n">
-        <v>0.03321867808699608</v>
+        <v>0.02117876894772053</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3840329647064209</v>
       </c>
       <c r="V107" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.506804883480072</v>
       </c>
       <c r="W107" t="n">
-        <v>0.002703087404370308</v>
+        <v>0.01507294364273548</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3876800537109375</v>
       </c>
       <c r="V108" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.4782776236534119</v>
       </c>
       <c r="W108" t="n">
-        <v>0.04546439647674561</v>
+        <v>0.008207920007407665</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3914518356323242</v>
       </c>
       <c r="V109" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.9562295079231262</v>
       </c>
       <c r="W109" t="n">
-        <v>0.0001463655498810112</v>
+        <v>0.3189738094806671</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3865499496459961</v>
       </c>
       <c r="V110" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.5853701829910278</v>
       </c>
       <c r="W110" t="n">
-        <v>0.01386936940252781</v>
+        <v>0.03952948376536369</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3879671096801758</v>
       </c>
       <c r="V111" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.8992927670478821</v>
       </c>
       <c r="W111" t="n">
-        <v>0.09065131098031998</v>
+        <v>0.2614539265632629</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.404371976852417</v>
       </c>
       <c r="V112" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.4945766925811768</v>
       </c>
       <c r="W112" t="n">
-        <v>0.004702161997556686</v>
+        <v>0.008136890828609467</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3875269889831543</v>
       </c>
       <c r="V113" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.5074195265769958</v>
       </c>
       <c r="W113" t="n">
-        <v>0.06731848418712616</v>
+        <v>0.01437422074377537</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.389984130859375</v>
       </c>
       <c r="V114" t="n">
-        <v>0.56879723072052</v>
+        <v>0.8714242577552795</v>
       </c>
       <c r="W114" t="n">
-        <v>0.03197412565350533</v>
+        <v>0.2317845970392227</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.387199878692627</v>
       </c>
       <c r="V115" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.907759428024292</v>
       </c>
       <c r="W115" t="n">
-        <v>7.495411409763619e-05</v>
+        <v>0.2709822356700897</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3892979621887207</v>
       </c>
       <c r="V116" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.936450183391571</v>
       </c>
       <c r="W116" t="n">
-        <v>0.01607133261859417</v>
+        <v>0.2993755638599396</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3893561363220215</v>
       </c>
       <c r="V117" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.4731401801109314</v>
       </c>
       <c r="W117" t="n">
-        <v>0.05547893792390823</v>
+        <v>0.007019766140729189</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4645850658416748</v>
       </c>
       <c r="V118" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.9054921865463257</v>
       </c>
       <c r="W118" t="n">
-        <v>0.01176599133759737</v>
+        <v>0.1943990886211395</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.389646053314209</v>
       </c>
       <c r="V119" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.4702096581459045</v>
       </c>
       <c r="W119" t="n">
-        <v>0.03213932365179062</v>
+        <v>0.006490494590252638</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.402008056640625</v>
       </c>
       <c r="V120" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.9365323781967163</v>
       </c>
       <c r="W120" t="n">
-        <v>0.001616979017853737</v>
+        <v>0.2857162356376648</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3886678218841553</v>
       </c>
       <c r="V121" t="n">
-        <v>0.551414966583252</v>
+        <v>0.4753963351249695</v>
       </c>
       <c r="W121" t="n">
-        <v>0.02648663334548473</v>
+        <v>0.007521835155785084</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.87795090675354</v>
       </c>
       <c r="V122" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.4949933290481567</v>
       </c>
       <c r="W122" t="n">
-        <v>0.04814218729734421</v>
+        <v>0.1466565132141113</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9596488475799561</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.9227555394172668</v>
       </c>
       <c r="W123" t="n">
-        <v>0.1144703552126884</v>
+        <v>0.001361116184853017</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8932981491088867</v>
       </c>
       <c r="V124" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.9001888632774353</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1164429783821106</v>
+        <v>4.748194260173477e-05</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8721728324890137</v>
       </c>
       <c r="V125" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.8997487425804138</v>
       </c>
       <c r="W125" t="n">
-        <v>0.1372096389532089</v>
+        <v>0.0007604308193549514</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8685729503631592</v>
       </c>
       <c r="V126" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.4981844425201416</v>
       </c>
       <c r="W126" t="n">
-        <v>0.002061140490695834</v>
+        <v>0.1371876448392868</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.9277229309082031</v>
       </c>
       <c r="V127" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.894408643245697</v>
       </c>
       <c r="W127" t="n">
-        <v>0.2248128056526184</v>
+        <v>0.001109841745346785</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8649361133575439</v>
       </c>
       <c r="V128" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.4946274161338806</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1843248307704926</v>
+        <v>0.1371285319328308</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8596479892730713</v>
       </c>
       <c r="V129" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.4827986359596252</v>
       </c>
       <c r="W129" t="n">
-        <v>0.09544918686151505</v>
+        <v>0.1420154422521591</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8693258762359619</v>
       </c>
       <c r="V130" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.5023515820503235</v>
       </c>
       <c r="W130" t="n">
-        <v>0.04505891725420952</v>
+        <v>0.1346701383590698</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.9082400798797607</v>
       </c>
       <c r="V131" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.878244936466217</v>
       </c>
       <c r="W131" t="n">
-        <v>0.177633985877037</v>
+        <v>0.0008997086551971734</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8649959564208984</v>
       </c>
       <c r="V132" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.5865936875343323</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1306260824203491</v>
+        <v>0.07750782370567322</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.887131929397583</v>
       </c>
       <c r="V133" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.482796847820282</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1866837292909622</v>
+        <v>0.1634868532419205</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8540570735931396</v>
       </c>
       <c r="V134" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.4700667858123779</v>
       </c>
       <c r="W134" t="n">
-        <v>0.07727087289094925</v>
+        <v>0.1474485397338867</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.9169399738311768</v>
       </c>
       <c r="V135" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.951061487197876</v>
       </c>
       <c r="W135" t="n">
-        <v>0.0746561735868454</v>
+        <v>0.001164277666248381</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.889164924621582</v>
       </c>
       <c r="V136" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.5324075818061829</v>
       </c>
       <c r="W136" t="n">
-        <v>0.1750631332397461</v>
+        <v>0.1272757947444916</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>1.000038862228394</v>
       </c>
       <c r="V137" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.9009718894958496</v>
       </c>
       <c r="W137" t="n">
-        <v>0.3111737370491028</v>
+        <v>0.009814265184104443</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>1.042061805725098</v>
       </c>
       <c r="V138" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.4837952852249146</v>
       </c>
       <c r="W138" t="n">
-        <v>0.0921541154384613</v>
+        <v>0.3116615116596222</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>1.044852018356323</v>
       </c>
       <c r="V139" t="n">
-        <v>0.474732518196106</v>
+        <v>0.5132163763046265</v>
       </c>
       <c r="W139" t="n">
-        <v>0.3250362575054169</v>
+        <v>0.2826364636421204</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.9745490550994873</v>
       </c>
       <c r="V140" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.4928187131881714</v>
       </c>
       <c r="W140" t="n">
-        <v>0.02498317509889603</v>
+        <v>0.2320641279220581</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>1.012307167053223</v>
       </c>
       <c r="V141" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.484793484210968</v>
       </c>
       <c r="W141" t="n">
-        <v>0.387141615152359</v>
+        <v>0.2782706916332245</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.7243790626525879</v>
       </c>
       <c r="V142" t="n">
-        <v>0.551541268825531</v>
+        <v>0.4948417544364929</v>
       </c>
       <c r="W142" t="n">
-        <v>0.02987290360033512</v>
+        <v>0.0526873767375946</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.7847039699554443</v>
       </c>
       <c r="V143" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.8991546034812927</v>
       </c>
       <c r="W143" t="n">
-        <v>0.02679647505283356</v>
+        <v>0.01309894770383835</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.6926898956298828</v>
       </c>
       <c r="V144" t="n">
-        <v>0.458252340555191</v>
+        <v>0.587425708770752</v>
       </c>
       <c r="W144" t="n">
-        <v>0.05496096611022949</v>
+        <v>0.01108054909855127</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.591541051864624</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.9094423055648804</v>
       </c>
       <c r="W145" t="n">
-        <v>0.01461029052734375</v>
+        <v>0.1010612100362778</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.7126760482788086</v>
       </c>
       <c r="V146" t="n">
-        <v>0.43533855676651</v>
+        <v>0.8875094652175903</v>
       </c>
       <c r="W146" t="n">
-        <v>0.07691608369350433</v>
+        <v>0.03056672401726246</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.7342269420623779</v>
       </c>
       <c r="V147" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.8797670602798462</v>
       </c>
       <c r="W147" t="n">
-        <v>0.07186321169137955</v>
+        <v>0.02118192613124847</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>1.749162912368774</v>
       </c>
       <c r="V148" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.582783043384552</v>
       </c>
       <c r="W148" t="n">
-        <v>1.387059688568115</v>
+        <v>1.360442161560059</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>1.001610994338989</v>
       </c>
       <c r="V149" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.4946103096008301</v>
       </c>
       <c r="W149" t="n">
-        <v>0.1424845159053802</v>
+        <v>0.2570496797561646</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5294368267059326</v>
       </c>
       <c r="V150" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.4838470220565796</v>
       </c>
       <c r="W150" t="n">
-        <v>0.02067426405847073</v>
+        <v>0.002078430261462927</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>1.009587049484253</v>
       </c>
       <c r="V151" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.5298082232475281</v>
       </c>
       <c r="W151" t="n">
-        <v>0.03905141726136208</v>
+        <v>0.2301877290010452</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5450611114501953</v>
       </c>
       <c r="V152" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.885526716709137</v>
       </c>
       <c r="W152" t="n">
-        <v>9.08971851458773e-05</v>
+        <v>0.1159168258309364</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5734999179840088</v>
       </c>
       <c r="V153" t="n">
-        <v>0.624285101890564</v>
+        <v>0.4818016886711121</v>
       </c>
       <c r="W153" t="n">
-        <v>0.00257913488894701</v>
+        <v>0.008408565074205399</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.6739001274108887</v>
       </c>
       <c r="V154" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.6231939196586609</v>
       </c>
       <c r="W154" t="n">
-        <v>0.002501246985048056</v>
+        <v>0.002571119461208582</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5439260005950928</v>
       </c>
       <c r="V155" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.4763379096984863</v>
       </c>
       <c r="W155" t="n">
-        <v>0.0007472765282727778</v>
+        <v>0.004568149801343679</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5302438735961914</v>
       </c>
       <c r="V156" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.4830576181411743</v>
       </c>
       <c r="W156" t="n">
-        <v>0.001843064790591598</v>
+        <v>0.002226542681455612</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5834450721740723</v>
       </c>
       <c r="V157" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.4701229929924011</v>
       </c>
       <c r="W157" t="n">
-        <v>0.001425603055395186</v>
+        <v>0.01284189336001873</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.6906929016113281</v>
       </c>
       <c r="V158" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.4751006960868835</v>
       </c>
       <c r="W158" t="n">
-        <v>0.06485676020383835</v>
+        <v>0.04648000001907349</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.7160649299621582</v>
       </c>
       <c r="V159" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.5858119130134583</v>
       </c>
       <c r="W159" t="n">
-        <v>0.0785752534866333</v>
+        <v>0.01696584932506084</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.598010778427124</v>
       </c>
       <c r="V160" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.5318290591239929</v>
       </c>
       <c r="W160" t="n">
-        <v>0.04652014002203941</v>
+        <v>0.004380019847303629</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.7153480052947998</v>
       </c>
       <c r="V161" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.5066201090812683</v>
       </c>
       <c r="W161" t="n">
-        <v>0.01921448484063148</v>
+        <v>0.04356733337044716</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.4626121520996094</v>
       </c>
       <c r="V162" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.5315355658531189</v>
       </c>
       <c r="W162" t="n">
-        <v>0.007941465824842453</v>
+        <v>0.00475043710321188</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.5827970504760742</v>
       </c>
       <c r="V163" t="n">
-        <v>0.436027318239212</v>
+        <v>0.8687481284141541</v>
       </c>
       <c r="W163" t="n">
-        <v>0.02154135517776012</v>
+        <v>0.08176802098751068</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.5078370571136475</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.4728031754493713</v>
       </c>
       <c r="W164" t="n">
-        <v>0.002751555992290378</v>
+        <v>0.001227372908033431</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.5675728321075439</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.4991372227668762</v>
       </c>
       <c r="W165" t="n">
-        <v>0.000346083688782528</v>
+        <v>0.004683432634919882</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.4103000164031982</v>
       </c>
       <c r="V166" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.5134199857711792</v>
       </c>
       <c r="W166" t="n">
-        <v>0.002009789925068617</v>
+        <v>0.01063372846692801</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.4328699111938477</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.4850170612335205</v>
       </c>
       <c r="W167" t="n">
-        <v>0.01371179614216089</v>
+        <v>0.002719325246289372</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.401043176651001</v>
       </c>
       <c r="V168" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.4732816219329834</v>
       </c>
       <c r="W168" t="n">
-        <v>0.04993776232004166</v>
+        <v>0.005218393169343472</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.4814860820770264</v>
       </c>
       <c r="V169" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.529659628868103</v>
       </c>
       <c r="W169" t="n">
-        <v>0.00609172135591507</v>
+        <v>0.002320690546184778</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.4977660179138184</v>
       </c>
       <c r="V170" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.5297021269798279</v>
       </c>
       <c r="W170" t="n">
-        <v>1.609940045455005e-05</v>
+        <v>0.001019915100187063</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.4146420955657959</v>
       </c>
       <c r="V171" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.4723944067955017</v>
       </c>
       <c r="W171" t="n">
-        <v>0.05867014452815056</v>
+        <v>0.003335329471156001</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4225339889526367</v>
       </c>
       <c r="V172" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.4971473813056946</v>
       </c>
       <c r="W172" t="n">
-        <v>0.007093458902090788</v>
+        <v>0.005567158106714487</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.5003869533538818</v>
       </c>
       <c r="V173" t="n">
-        <v>0.561543881893158</v>
+        <v>0.4928001761436462</v>
       </c>
       <c r="W173" t="n">
-        <v>0.003740169806405902</v>
+        <v>5.75591875531245e-05</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.6014859676361084</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.8971081376075745</v>
       </c>
       <c r="W174" t="n">
-        <v>0.02737840823829174</v>
+        <v>0.08739246428012848</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.6269838809967041</v>
       </c>
       <c r="V175" t="n">
-        <v>0.630542516708374</v>
+        <v>0.4967305064201355</v>
       </c>
       <c r="W175" t="n">
-        <v>1.266388790099882e-05</v>
+        <v>0.01696594245731831</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.4697051048278809</v>
       </c>
       <c r="V176" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.8787437677383423</v>
       </c>
       <c r="W176" t="n">
-        <v>0.001365619129501283</v>
+        <v>0.1673126220703125</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.6418681144714355</v>
       </c>
       <c r="V177" t="n">
-        <v>0.476378470659256</v>
+        <v>0.950566291809082</v>
       </c>
       <c r="W177" t="n">
-        <v>0.02738682180643082</v>
+        <v>0.09529456496238708</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.4358580112457275</v>
       </c>
       <c r="V178" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.491951584815979</v>
       </c>
       <c r="W178" t="n">
-        <v>0.03375250846147537</v>
+        <v>0.003146488917991519</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.475985050201416</v>
       </c>
       <c r="V179" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.5866172909736633</v>
       </c>
       <c r="W179" t="n">
-        <v>0.0449763610959053</v>
+        <v>0.01223949249833822</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.4401679039001465</v>
       </c>
       <c r="V180" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.5295900106430054</v>
       </c>
       <c r="W180" t="n">
-        <v>0.0878586545586586</v>
+        <v>0.007996313273906708</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.5869040489196777</v>
       </c>
       <c r="V181" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.5857028365135193</v>
       </c>
       <c r="W181" t="n">
-        <v>0.0008910726755857468</v>
+        <v>1.442911297999672e-06</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.9794049263000488</v>
       </c>
       <c r="V182" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.4728608727455139</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1032605245709419</v>
+        <v>0.256586879491806</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9947819709777832</v>
       </c>
       <c r="V183" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.4942572712898254</v>
       </c>
       <c r="W183" t="n">
-        <v>0.3118221759796143</v>
+        <v>0.2505249679088593</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>1.303267002105713</v>
       </c>
       <c r="V184" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.9010909199714661</v>
       </c>
       <c r="W184" t="n">
-        <v>0.7130641937255859</v>
+        <v>0.1617456078529358</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.9455239772796631</v>
       </c>
       <c r="V185" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.5295655727386475</v>
       </c>
       <c r="W185" t="n">
-        <v>0.154153436422348</v>
+        <v>0.1730213910341263</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.9072911739349365</v>
       </c>
       <c r="V186" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.928318202495575</v>
       </c>
       <c r="W186" t="n">
-        <v>0.1855464726686478</v>
+        <v>0.0004421359335538</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>1.161113977432251</v>
       </c>
       <c r="V187" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.4856943488121033</v>
       </c>
       <c r="W187" t="n">
-        <v>0.2505404353141785</v>
+        <v>0.4561916887760162</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>1.067646026611328</v>
       </c>
       <c r="V188" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.5853618979454041</v>
       </c>
       <c r="W188" t="n">
-        <v>0.061934445053339</v>
+        <v>0.2325979769229889</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.9490058422088623</v>
       </c>
       <c r="V189" t="n">
-        <v>0.480756551027298</v>
+        <v>0.9678418040275574</v>
       </c>
       <c r="W189" t="n">
-        <v>0.2192573994398117</v>
+        <v>0.0003547934466041625</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>1.015818119049072</v>
       </c>
       <c r="V190" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.8991171717643738</v>
       </c>
       <c r="W190" t="n">
-        <v>0.2122586965560913</v>
+        <v>0.01361911091953516</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>1.242063999176025</v>
       </c>
       <c r="V191" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.9222241640090942</v>
       </c>
       <c r="W191" t="n">
-        <v>0.342491626739502</v>
+        <v>0.1022975221276283</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.9658050537109375</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.8779981732368469</v>
       </c>
       <c r="W192" t="n">
-        <v>0.2516811192035675</v>
+        <v>0.007710048463195562</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.9985220432281494</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.5128976702690125</v>
       </c>
       <c r="W193" t="n">
-        <v>0.2925570607185364</v>
+        <v>0.2358310371637344</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.915024995803833</v>
       </c>
       <c r="V194" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.9453839659690857</v>
       </c>
       <c r="W194" t="n">
-        <v>0.08627242594957352</v>
+        <v>0.0009216670878231525</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.9496200084686279</v>
       </c>
       <c r="V195" t="n">
-        <v>0.435836523771286</v>
+        <v>0.489538848400116</v>
       </c>
       <c r="W195" t="n">
-        <v>0.2639734447002411</v>
+        <v>0.2116746753454208</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8781299591064453</v>
       </c>
       <c r="V196" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.4896829128265381</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1053543910384178</v>
+        <v>0.1508911103010178</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.9179329872131348</v>
       </c>
       <c r="V197" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.9519972801208496</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1372854262590408</v>
+        <v>0.001160376006737351</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.9417951107025146</v>
       </c>
       <c r="V198" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.5836893916130066</v>
       </c>
       <c r="W198" t="n">
-        <v>0.1915247142314911</v>
+        <v>0.128239706158638</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.9349501132965088</v>
       </c>
       <c r="V199" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.4841642379760742</v>
       </c>
       <c r="W199" t="n">
-        <v>0.04413271695375443</v>
+        <v>0.2032079100608826</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8828499317169189</v>
       </c>
       <c r="V200" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.4844440221786499</v>
       </c>
       <c r="W200" t="n">
-        <v>0.02222226373851299</v>
+        <v>0.1587272733449936</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.9538199901580811</v>
       </c>
       <c r="V201" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.9001304507255554</v>
       </c>
       <c r="W201" t="n">
-        <v>0.2681189179420471</v>
+        <v>0.002882566535845399</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5713810920715332</v>
       </c>
       <c r="V202" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.5827780961990356</v>
       </c>
       <c r="W202" t="n">
-        <v>0.01101487409323454</v>
+        <v>0.0001298917050007731</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5755140781402588</v>
       </c>
       <c r="V203" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.4978733658790588</v>
       </c>
       <c r="W203" t="n">
-        <v>3.748025847016834e-05</v>
+        <v>0.006028080359101295</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5945589542388916</v>
       </c>
       <c r="V204" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.5318095684051514</v>
       </c>
       <c r="W204" t="n">
-        <v>0.002385536441579461</v>
+        <v>0.003937485627830029</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5229620933532715</v>
       </c>
       <c r="V205" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.4827937483787537</v>
       </c>
       <c r="W205" t="n">
-        <v>0.0533301942050457</v>
+        <v>0.001613495987839997</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5375070571899414</v>
       </c>
       <c r="V206" t="n">
-        <v>0.57613205909729</v>
+        <v>0.4960753321647644</v>
       </c>
       <c r="W206" t="n">
-        <v>0.001491890754550695</v>
+        <v>0.001716587808914483</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5311958789825439</v>
       </c>
       <c r="V207" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.5295994281768799</v>
       </c>
       <c r="W207" t="n">
-        <v>0.007823373191058636</v>
+        <v>2.548655174905434e-06</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.6338448524475098</v>
       </c>
       <c r="V208" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.8967016339302063</v>
       </c>
       <c r="W208" t="n">
-        <v>0.0266082901507616</v>
+        <v>0.06909368932247162</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.566864013671875</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.9521380662918091</v>
       </c>
       <c r="W209" t="n">
-        <v>0.01009783335030079</v>
+        <v>0.1484360992908478</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5531690120697021</v>
       </c>
       <c r="V210" t="n">
-        <v>0.471180647611618</v>
+        <v>0.4964430928230286</v>
       </c>
       <c r="W210" t="n">
-        <v>0.006722091697156429</v>
+        <v>0.00321782985702157</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5796909332275391</v>
       </c>
       <c r="V211" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.5294879078865051</v>
       </c>
       <c r="W211" t="n">
-        <v>0.00410713255405426</v>
+        <v>0.002520343754440546</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5299561023712158</v>
       </c>
       <c r="V212" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.4829919934272766</v>
       </c>
       <c r="W212" t="n">
-        <v>0.00524763111025095</v>
+        <v>0.002205627504736185</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5377700328826904</v>
       </c>
       <c r="V213" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.9267725348472595</v>
       </c>
       <c r="W213" t="n">
-        <v>0.005142622161656618</v>
+        <v>0.1513229459524155</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5300910472869873</v>
       </c>
       <c r="V214" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.531093955039978</v>
       </c>
       <c r="W214" t="n">
-        <v>0.009130269289016724</v>
+        <v>1.005823946798046e-06</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5340449810028076</v>
       </c>
       <c r="V215" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.9547984004020691</v>
       </c>
       <c r="W215" t="n">
-        <v>0.001204142114147544</v>
+        <v>0.1770334392786026</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5986099243164062</v>
       </c>
       <c r="V216" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.9189891219139099</v>
       </c>
       <c r="W216" t="n">
-        <v>0.009344818070530891</v>
+        <v>0.1026428267359734</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5535690784454346</v>
       </c>
       <c r="V217" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.5035587549209595</v>
       </c>
       <c r="W217" t="n">
-        <v>0.007667927537113428</v>
+        <v>0.00250103254802525</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5939450263977051</v>
       </c>
       <c r="V218" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.5297278761863708</v>
       </c>
       <c r="W218" t="n">
-        <v>0.000117395757115446</v>
+        <v>0.004123842343688011</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5699090957641602</v>
       </c>
       <c r="V219" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.8957154154777527</v>
       </c>
       <c r="W219" t="n">
-        <v>0.0003384223091416061</v>
+        <v>0.1061497554183006</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5366451740264893</v>
       </c>
       <c r="V220" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.512722373008728</v>
       </c>
       <c r="W220" t="n">
-        <v>0.02485003508627415</v>
+        <v>0.0005723003996536136</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5297369956970215</v>
       </c>
       <c r="V221" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.4783132076263428</v>
       </c>
       <c r="W221" t="n">
-        <v>0.02379123121500015</v>
+        <v>0.002644405933097005</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.4540388584136963</v>
       </c>
       <c r="V222" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.5127947926521301</v>
       </c>
       <c r="W222" t="n">
-        <v>1.233034163306002e-05</v>
+        <v>0.003452259814366698</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.5054399967193604</v>
       </c>
       <c r="V223" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.9383996725082397</v>
       </c>
       <c r="W223" t="n">
-        <v>0.01318007428199053</v>
+        <v>0.1874540746212006</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.4479269981384277</v>
       </c>
       <c r="V224" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.4697949290275574</v>
       </c>
       <c r="W224" t="n">
-        <v>0.1374882310628891</v>
+        <v>0.000478206406114623</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.4337079524993896</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.5295780897140503</v>
       </c>
       <c r="W225" t="n">
-        <v>0.003823492443189025</v>
+        <v>0.009191082790493965</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.4106848239898682</v>
       </c>
       <c r="V226" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.951845109462738</v>
       </c>
       <c r="W226" t="n">
-        <v>0.1063784509897232</v>
+        <v>0.2928544580936432</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.4406330585479736</v>
       </c>
       <c r="V227" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.9054226279258728</v>
       </c>
       <c r="W227" t="n">
-        <v>0.03425383195281029</v>
+        <v>0.2160293459892273</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4094099998474121</v>
       </c>
       <c r="V228" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.4878324866294861</v>
       </c>
       <c r="W228" t="n">
-        <v>0.02645339071750641</v>
+        <v>0.006150086410343647</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4496161937713623</v>
       </c>
       <c r="V229" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.9014641642570496</v>
       </c>
       <c r="W229" t="n">
-        <v>0.03086473420262337</v>
+        <v>0.20416659116745</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.40966796875</v>
       </c>
       <c r="V230" t="n">
-        <v>0.504918098449707</v>
+        <v>0.5298066735267639</v>
       </c>
       <c r="W230" t="n">
-        <v>0.009072586894035339</v>
+        <v>0.01443330850452185</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.4010720252990723</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.9197180271148682</v>
       </c>
       <c r="W231" t="n">
-        <v>0.002782124560326338</v>
+        <v>0.2689936757087708</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4480741024017334</v>
       </c>
       <c r="V232" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.9368547201156616</v>
       </c>
       <c r="W232" t="n">
-        <v>9.339345706393942e-05</v>
+        <v>0.2389064878225327</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.402522087097168</v>
       </c>
       <c r="V233" t="n">
-        <v>0.473088413476944</v>
+        <v>1.002238512039185</v>
       </c>
       <c r="W233" t="n">
-        <v>0.004979606252163649</v>
+        <v>0.3596597909927368</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.4026041030883789</v>
       </c>
       <c r="V234" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.492732048034668</v>
       </c>
       <c r="W234" t="n">
-        <v>0.02242716774344444</v>
+        <v>0.008123046718537807</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4044098854064941</v>
       </c>
       <c r="V235" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.5296313166618347</v>
       </c>
       <c r="W235" t="n">
-        <v>0.0006776666268706322</v>
+        <v>0.01568040624260902</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4055910110473633</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.9143356680870056</v>
       </c>
       <c r="W236" t="n">
-        <v>0.04940395802259445</v>
+        <v>0.2588211297988892</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4199600219726562</v>
       </c>
       <c r="V237" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.4925639629364014</v>
       </c>
       <c r="W237" t="n">
-        <v>0.1585728526115417</v>
+        <v>0.005271332338452339</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3885390758514404</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.8700332641601562</v>
       </c>
       <c r="W238" t="n">
-        <v>0.02665351144969463</v>
+        <v>0.2318366467952728</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3922989368438721</v>
       </c>
       <c r="V239" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.4817048907279968</v>
       </c>
       <c r="W239" t="n">
-        <v>0.05248380079865456</v>
+        <v>0.007993424311280251</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3909039497375488</v>
       </c>
       <c r="V240" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.8978661894798279</v>
       </c>
       <c r="W240" t="n">
-        <v>0.0687040239572525</v>
+        <v>0.2570106983184814</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3951401710510254</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.4926402568817139</v>
       </c>
       <c r="W241" t="n">
-        <v>0.001694669597782195</v>
+        <v>0.009506266564130783</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9211130142211914</v>
       </c>
       <c r="V242" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.5127996206283569</v>
       </c>
       <c r="W242" t="n">
-        <v>0.1805460900068283</v>
+        <v>0.1667198240756989</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.9806990623474121</v>
       </c>
       <c r="V243" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.5024247765541077</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1827834695577621</v>
+        <v>0.2287462949752808</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.870244026184082</v>
       </c>
       <c r="V244" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.8995468020439148</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1648994535207748</v>
+        <v>0.0008586526964791119</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8767430782318115</v>
       </c>
       <c r="V245" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.9625727534294128</v>
       </c>
       <c r="W245" t="n">
-        <v>0.1409134864807129</v>
+        <v>0.007366733159869909</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8698410987854004</v>
       </c>
       <c r="V246" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.9252747893333435</v>
       </c>
       <c r="W246" t="n">
-        <v>0.1561445891857147</v>
+        <v>0.003072893945500255</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8713259696960449</v>
       </c>
       <c r="V247" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.9666815400123596</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1044221371412277</v>
+        <v>0.009092684835195541</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8667900562286377</v>
       </c>
       <c r="V248" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.5343932509422302</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1992992609739304</v>
+        <v>0.1104876324534416</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8821539878845215</v>
       </c>
       <c r="V249" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.5298017859458923</v>
       </c>
       <c r="W249" t="n">
-        <v>0.004277550615370274</v>
+        <v>0.1241520717740059</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8690099716186523</v>
       </c>
       <c r="V250" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.4870189428329468</v>
       </c>
       <c r="W250" t="n">
-        <v>0.1874862611293793</v>
+        <v>0.145917147397995</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8637280464172363</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.5343128442764282</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1647025644779205</v>
+        <v>0.1085143759846687</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.9269728660583496</v>
       </c>
       <c r="V252" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.4699739217758179</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1786638349294662</v>
+        <v>0.2088480293750763</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8710360527038574</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.4939292073249817</v>
       </c>
       <c r="W253" t="n">
-        <v>0.09141850471496582</v>
+        <v>0.1422095745801926</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8685760498046875</v>
       </c>
       <c r="V254" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.5133370757102966</v>
       </c>
       <c r="W254" t="n">
-        <v>0.0589556023478508</v>
+        <v>0.1261947304010391</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8729279041290283</v>
       </c>
       <c r="V255" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.5303475856781006</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1668181866407394</v>
+        <v>0.1173612773418427</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.944101095199585</v>
       </c>
       <c r="V256" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.4989773631095886</v>
       </c>
       <c r="W256" t="n">
-        <v>0.105825811624527</v>
+        <v>0.1981351375579834</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8737947940826416</v>
       </c>
       <c r="V257" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.4770219922065735</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1367334127426147</v>
+        <v>0.157428652048111</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8584229946136475</v>
       </c>
       <c r="V258" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.5292688012123108</v>
       </c>
       <c r="W258" t="n">
-        <v>0.05754296854138374</v>
+        <v>0.1083424836397171</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8679828643798828</v>
       </c>
       <c r="V259" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.534370481967926</v>
       </c>
       <c r="W259" t="n">
-        <v>0.118633896112442</v>
+        <v>0.111297219991684</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.9213440418243408</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.9088448286056519</v>
       </c>
       <c r="W260" t="n">
-        <v>0.217277392745018</v>
+        <v>0.0001562303368700668</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8658730983734131</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.8967292904853821</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1667200475931168</v>
+        <v>0.0009521045722067356</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5375349521636963</v>
       </c>
       <c r="V262" t="n">
-        <v>0.569115161895752</v>
+        <v>0.926910400390625</v>
       </c>
       <c r="W262" t="n">
-        <v>0.0009973096894100308</v>
+        <v>0.1516132354736328</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5455069541931152</v>
       </c>
       <c r="V263" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.931815505027771</v>
       </c>
       <c r="W263" t="n">
-        <v>0.005698091816157103</v>
+        <v>0.1492342948913574</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5220639705657959</v>
       </c>
       <c r="V264" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.5295511484146118</v>
       </c>
       <c r="W264" t="n">
-        <v>0.002223011571913958</v>
+        <v>5.605783371720463e-05</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5788588523864746</v>
       </c>
       <c r="V265" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.5036318302154541</v>
       </c>
       <c r="W265" t="n">
-        <v>0.002068106317892671</v>
+        <v>0.005659104790538549</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5263650417327881</v>
       </c>
       <c r="V266" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.5132290720939636</v>
       </c>
       <c r="W266" t="n">
-        <v>0.03952308744192123</v>
+        <v>0.0001725537003949285</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5242989063262939</v>
       </c>
       <c r="V267" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.4933364391326904</v>
       </c>
       <c r="W267" t="n">
-        <v>0.000843278830870986</v>
+        <v>0.0009586743544787169</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5247111320495605</v>
       </c>
       <c r="V268" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.9155877232551575</v>
       </c>
       <c r="W268" t="n">
-        <v>0.04949525371193886</v>
+        <v>0.1527845114469528</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5220930576324463</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.8971608877182007</v>
       </c>
       <c r="W269" t="n">
-        <v>0.00538349524140358</v>
+        <v>0.1406758725643158</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5763959884643555</v>
       </c>
       <c r="V270" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.4992403984069824</v>
       </c>
       <c r="W270" t="n">
-        <v>0.01386918034404516</v>
+        <v>0.005952985025942326</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.52097487449646</v>
       </c>
       <c r="V271" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.6087473630905151</v>
       </c>
       <c r="W271" t="n">
-        <v>0.01002407539635897</v>
+        <v>0.007704009767621756</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5524191856384277</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.5318432450294495</v>
       </c>
       <c r="W272" t="n">
-        <v>0.006160940509289503</v>
+        <v>0.0004233693180140108</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5241289138793945</v>
       </c>
       <c r="V273" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.4949089288711548</v>
       </c>
       <c r="W273" t="n">
-        <v>0.002886353759095073</v>
+        <v>0.0008538075489923358</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5241098403930664</v>
       </c>
       <c r="V274" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.4840545654296875</v>
       </c>
       <c r="W274" t="n">
-        <v>0.006487277336418629</v>
+        <v>0.001604425022378564</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5179378986358643</v>
       </c>
       <c r="V275" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.4856934547424316</v>
       </c>
       <c r="W275" t="n">
-        <v>0.004135831724852324</v>
+        <v>0.001039704191498458</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.519568920135498</v>
       </c>
       <c r="V276" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.5872175693511963</v>
       </c>
       <c r="W276" t="n">
-        <v>0.009599804878234863</v>
+        <v>0.004576339852064848</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5325438976287842</v>
       </c>
       <c r="V277" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.4841141700744629</v>
       </c>
       <c r="W277" t="n">
-        <v>0.007481289096176624</v>
+        <v>0.002345438580960035</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5204300880432129</v>
       </c>
       <c r="V278" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.4659334421157837</v>
       </c>
       <c r="W278" t="n">
-        <v>0.01075580064207315</v>
+        <v>0.002969884313642979</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5581910610198975</v>
       </c>
       <c r="V279" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.9526826739311218</v>
       </c>
       <c r="W279" t="n">
-        <v>0.02825536578893661</v>
+        <v>0.1556236296892166</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.540956974029541</v>
       </c>
       <c r="V280" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.8984387516975403</v>
       </c>
       <c r="W280" t="n">
-        <v>0.007501904387027025</v>
+        <v>0.1277932226657867</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5250480175018311</v>
       </c>
       <c r="V281" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.9443265795707703</v>
       </c>
       <c r="W281" t="n">
-        <v>0.004541166592389345</v>
+        <v>0.1757945120334625</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4176249504089355</v>
       </c>
       <c r="V282" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.4700875878334045</v>
       </c>
       <c r="W282" t="n">
-        <v>0.0591682493686676</v>
+        <v>0.002752328291535378</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4070680141448975</v>
       </c>
       <c r="V283" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.5132213234901428</v>
       </c>
       <c r="W283" t="n">
-        <v>0.1058993563055992</v>
+        <v>0.01126852538436651</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3968582153320312</v>
       </c>
       <c r="V284" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.5296083688735962</v>
       </c>
       <c r="W284" t="n">
-        <v>0.06346619874238968</v>
+        <v>0.01762260310351849</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3917670249938965</v>
       </c>
       <c r="V285" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.5320833921432495</v>
       </c>
       <c r="W285" t="n">
-        <v>0.007016080897301435</v>
+        <v>0.01968868263065815</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3943579196929932</v>
       </c>
       <c r="V286" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.4816326498985291</v>
       </c>
       <c r="W286" t="n">
-        <v>0.02526412717998028</v>
+        <v>0.007616878487169743</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.408660888671875</v>
       </c>
       <c r="V287" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.8880017399787903</v>
       </c>
       <c r="W287" t="n">
-        <v>0.0007155400817282498</v>
+        <v>0.2297676503658295</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3990390300750732</v>
       </c>
       <c r="V288" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.4842103123664856</v>
       </c>
       <c r="W288" t="n">
-        <v>0.005148706026375294</v>
+        <v>0.007254147436469793</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4037508964538574</v>
       </c>
       <c r="V289" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.5332478880882263</v>
       </c>
       <c r="W289" t="n">
-        <v>0.1702773571014404</v>
+        <v>0.01676947064697742</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3965380191802979</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.9920916557312012</v>
       </c>
       <c r="W290" t="n">
-        <v>0.0115361176431179</v>
+        <v>0.3546841442584991</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4003570079803467</v>
       </c>
       <c r="V291" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.4862464070320129</v>
       </c>
       <c r="W291" t="n">
-        <v>0.06752048432826996</v>
+        <v>0.007376988884061575</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4289281368255615</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.5296183228492737</v>
       </c>
       <c r="W292" t="n">
-        <v>0.0008416716009378433</v>
+        <v>0.01013851352035999</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4009029865264893</v>
       </c>
       <c r="V293" t="n">
-        <v>0.390147477388382</v>
+        <v>0.5065385699272156</v>
       </c>
       <c r="W293" t="n">
-        <v>0.0001156809739768505</v>
+        <v>0.01115887612104416</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4118380546569824</v>
       </c>
       <c r="V294" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.4946120381355286</v>
       </c>
       <c r="W294" t="n">
-        <v>0.04490630701184273</v>
+        <v>0.006851532496511936</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3951239585876465</v>
       </c>
       <c r="V295" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.6016889810562134</v>
       </c>
       <c r="W295" t="n">
-        <v>0.001672848360612988</v>
+        <v>0.04266911000013351</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3940439224243164</v>
       </c>
       <c r="V296" t="n">
-        <v>0.551807165145874</v>
+        <v>0.9010040163993835</v>
       </c>
       <c r="W296" t="n">
-        <v>0.02488924004137516</v>
+        <v>0.2570085227489471</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3973109722137451</v>
       </c>
       <c r="V297" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.4731187224388123</v>
       </c>
       <c r="W297" t="n">
-        <v>0.06171516329050064</v>
+        <v>0.005746814887970686</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.402285099029541</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.5352178812026978</v>
       </c>
       <c r="W298" t="n">
-        <v>0.001137970248237252</v>
+        <v>0.01767112500965595</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.422828197479248</v>
       </c>
       <c r="V299" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.5296394228935242</v>
       </c>
       <c r="W299" t="n">
-        <v>0.0001742175809340551</v>
+        <v>0.01140863820910454</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4005999565124512</v>
       </c>
       <c r="V300" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.4762832522392273</v>
       </c>
       <c r="W300" t="n">
-        <v>0.1731705814599991</v>
+        <v>0.00572796119377017</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4141850471496582</v>
       </c>
       <c r="V301" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.468428909778595</v>
       </c>
       <c r="W301" t="n">
-        <v>0.01835203357040882</v>
+        <v>0.002942396560683846</v>
       </c>
     </row>
     <row r="302" spans="1:23">
